--- a/BIO 221/Field Sampling/Bio 221 Field Sampling Data.xlsx
+++ b/BIO 221/Field Sampling/Bio 221 Field Sampling Data.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Purva\Desktop\Field Sampling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IISER\Labs\BIO 221\Field Sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0687C738-1B36-4CBE-8011-933D8E34637B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C464CB13-8855-4377-A588-8ADF81B4CE0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Florets Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Inflorescence Data" sheetId="6" r:id="rId2"/>
-    <sheet name="Florets Raw Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Inflorescence Raw Data" sheetId="4" r:id="rId4"/>
+    <sheet name="Florets Data and t value" sheetId="7" r:id="rId2"/>
+    <sheet name="Inflorescence Data" sheetId="6" r:id="rId3"/>
+    <sheet name="Florets Raw Data" sheetId="3" r:id="rId4"/>
+    <sheet name="Inflorescence Raw Data" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>Florets</t>
   </si>
@@ -107,6 +108,36 @@
   <si>
     <t>Poisson Distribution</t>
   </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>White-Top -- Purple-Top</t>
+  </si>
+  <si>
+    <t>White-Top -- Purple Side</t>
+  </si>
+  <si>
+    <t>White-Top -- White Side</t>
+  </si>
+  <si>
+    <t>Purple-Top -- White-Side</t>
+  </si>
+  <si>
+    <t>Purple-Top -- Purple-Side</t>
+  </si>
+  <si>
+    <t>White-Side -- Purple Side</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>t critical</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
 </sst>
 </file>
 
@@ -170,12 +201,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -185,13 +213,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -199,11 +233,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -243,19 +304,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -281,19 +336,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -332,38 +381,37 @@
               <a:gsLst>
                 <a:gs pos="0">
                   <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
                   <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
               <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -646,7 +694,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="247"/>
         <c:overlap val="-27"/>
         <c:axId val="1929285776"/>
         <c:axId val="1919586176"/>
@@ -672,19 +720,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -982,17 +1024,72 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Number of Inflorescences Per Grid</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1006,8 +1103,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1036,9 +1134,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1046,6 +1144,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Fractional</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> Occurrence</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1064,8 +1222,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1105,8 +1264,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1130,28 +1290,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1194,22 +1343,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -1232,22 +1375,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1279,42 +1416,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1597,7 +1705,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="269"/>
         <c:overlap val="-27"/>
         <c:axId val="2077351088"/>
         <c:axId val="1919587424"/>
@@ -1623,19 +1731,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1933,17 +2035,77 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> of Inflorescences Per Grid</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1955,10 +2117,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1987,9 +2150,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1997,6 +2160,80 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Fractional </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t>Occurrence</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2015,8 +2252,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2040,7 +2278,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2056,8 +2294,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2081,28 +2320,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2202,33 +2430,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2236,7 +2466,7 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2244,36 +2474,29 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2292,6 +2515,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2299,36 +2530,62 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2340,31 +2597,33 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2380,16 +2639,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2401,31 +2661,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="75000"/>
             <a:lumOff val="25000"/>
           </a:schemeClr>
@@ -2438,14 +2685,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2454,16 +2703,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -2472,7 +2721,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -2480,14 +2729,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2499,14 +2748,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2517,14 +2766,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2533,14 +2784,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2551,26 +2802,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2578,16 +2830,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2600,17 +2853,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -2619,31 +2872,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2655,8 +2901,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2666,29 +2913,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="85000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2697,8 +2934,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2708,48 +2946,50 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="225">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2757,36 +2997,29 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2797,13 +3030,16 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2813,35 +3049,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="38100" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2850,34 +3096,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2893,16 +3134,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2914,33 +3156,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2951,14 +3180,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2967,13 +3199,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2985,7 +3218,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -2993,14 +3226,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3012,16 +3245,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3030,14 +3264,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3046,14 +3283,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3064,26 +3301,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3091,16 +3329,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3113,14 +3352,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3131,20 +3370,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3153,13 +3385,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3168,8 +3401,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3179,29 +3413,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="85000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3210,8 +3434,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3221,7 +3446,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -3569,8 +3794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3606,16 +3831,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="2"/>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="2"/>
@@ -3636,1443 +3861,1443 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
         <v>182</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>147</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>188</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>146</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="7">
+      <c r="F3" s="3"/>
+      <c r="G3" s="5">
         <f>$A3*B3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <f t="shared" ref="H3:J18" si="0">$A3*C3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
         <f>B3/B$29</f>
         <v>0.14967105263157895</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <f t="shared" ref="M3:O18" si="1">C3/C$29</f>
         <v>0.11565696302124312</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <f t="shared" si="1"/>
         <v>0.20773480662983426</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <f t="shared" si="1"/>
         <v>0.1638608305274972</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
         <v>84</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>91</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>45</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>65</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="7">
+      <c r="F4" s="3"/>
+      <c r="G4" s="5">
         <f t="shared" ref="G4:G28" si="2">$A4*B4</f>
         <v>84</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
         <f t="shared" ref="L4:L28" si="3">B4/B$29</f>
         <v>6.9078947368421059E-2</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f t="shared" si="1"/>
         <v>7.1597167584579069E-2</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <f t="shared" si="1"/>
         <v>4.9723756906077346E-2</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <f t="shared" si="1"/>
         <v>7.2951739618406286E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
         <v>75</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>87</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>56</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>61</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="7">
+      <c r="F5" s="3"/>
+      <c r="G5" s="5">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <f t="shared" si="0"/>
         <v>174</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="5">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
         <f t="shared" si="3"/>
         <v>6.1677631578947366E-2</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <f t="shared" si="1"/>
         <v>6.8450039339103069E-2</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <f t="shared" si="1"/>
         <v>6.1878453038674036E-2</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <f t="shared" si="1"/>
         <v>6.8462401795735123E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
         <v>70</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>78</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>54</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>53</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="7">
+      <c r="F6" s="3"/>
+      <c r="G6" s="5">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <f t="shared" si="0"/>
         <v>234</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <f t="shared" si="0"/>
         <v>159</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
         <f t="shared" si="3"/>
         <v>5.7565789473684209E-2</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <f t="shared" si="1"/>
         <v>6.1369000786782063E-2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <f t="shared" si="1"/>
         <v>5.9668508287292817E-2</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <f t="shared" si="1"/>
         <v>5.9483726150392817E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
         <v>74</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>96</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>77</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>71</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="7">
+      <c r="F7" s="3"/>
+      <c r="G7" s="5">
         <f t="shared" si="2"/>
         <v>296</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
         <v>384</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>308</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <f t="shared" si="0"/>
         <v>284</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
         <f t="shared" si="3"/>
         <v>6.0855263157894739E-2</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <f t="shared" si="1"/>
         <v>7.5531077891424075E-2</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <f t="shared" si="1"/>
         <v>8.5082872928176789E-2</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <f t="shared" si="1"/>
         <v>7.9685746352413017E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
         <v>79</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>55</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>55</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>60</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="7">
+      <c r="F8" s="3"/>
+      <c r="G8" s="5">
         <f t="shared" si="2"/>
         <v>395</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
         <f t="shared" si="3"/>
         <v>6.4967105263157895E-2</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <f t="shared" si="1"/>
         <v>4.3273013375295044E-2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <f t="shared" si="1"/>
         <v>6.0773480662983423E-2</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <f t="shared" si="1"/>
         <v>6.7340067340067339E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
         <v>59</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>79</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>49</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>44</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="7">
+      <c r="F9" s="3"/>
+      <c r="G9" s="5">
         <f t="shared" si="2"/>
         <v>354</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <f t="shared" si="0"/>
         <v>474</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <f t="shared" si="0"/>
         <v>294</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <f t="shared" si="0"/>
         <v>264</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
         <f t="shared" si="3"/>
         <v>4.8519736842105261E-2</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <f t="shared" si="1"/>
         <v>6.2155782848151063E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <f t="shared" si="1"/>
         <v>5.4143646408839778E-2</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <f t="shared" si="1"/>
         <v>4.9382716049382713E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
         <v>84</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>80</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>45</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>43</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="7">
+      <c r="F10" s="3"/>
+      <c r="G10" s="5">
         <f t="shared" si="2"/>
         <v>588</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <f t="shared" si="0"/>
         <v>301</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
         <f t="shared" si="3"/>
         <v>6.9078947368421059E-2</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <f t="shared" si="1"/>
         <v>6.2942564909520063E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <f t="shared" si="1"/>
         <v>4.9723756906077346E-2</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <f t="shared" si="1"/>
         <v>4.8260381593714929E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
         <v>93</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>94</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>64</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>70</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="7">
+      <c r="F11" s="3"/>
+      <c r="G11" s="5">
         <f t="shared" si="2"/>
         <v>744</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <f t="shared" si="0"/>
         <v>752</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
         <f t="shared" si="3"/>
         <v>7.6480263157894732E-2</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <f t="shared" si="1"/>
         <v>7.3957513768686076E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <f t="shared" si="1"/>
         <v>7.07182320441989E-2</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <f t="shared" si="1"/>
         <v>7.8563411896745233E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
         <v>72</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>82</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>38</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>34</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="7">
+      <c r="F12" s="3"/>
+      <c r="G12" s="5">
         <f t="shared" si="2"/>
         <v>648</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <f t="shared" si="0"/>
         <v>738</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <f t="shared" si="0"/>
         <v>342</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="5">
         <f t="shared" si="0"/>
         <v>306</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
         <f t="shared" si="3"/>
         <v>5.921052631578947E-2</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <f t="shared" si="1"/>
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <f t="shared" si="1"/>
         <v>4.1988950276243095E-2</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <f t="shared" si="1"/>
         <v>3.8159371492704826E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>61</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>70</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>31</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>35</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="7">
+      <c r="F13" s="3"/>
+      <c r="G13" s="5">
         <f t="shared" si="2"/>
         <v>610</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="5">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="5">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
         <f t="shared" si="3"/>
         <v>5.016447368421053E-2</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <f t="shared" si="1"/>
         <v>5.5074744295830057E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <f t="shared" si="1"/>
         <v>3.4254143646408837E-2</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <f t="shared" si="1"/>
         <v>3.9281705948372617E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>56</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>62</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>36</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>38</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="7">
+      <c r="F14" s="3"/>
+      <c r="G14" s="5">
         <f t="shared" si="2"/>
         <v>616</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <f t="shared" si="0"/>
         <v>682</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="5">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="5">
         <f t="shared" si="0"/>
         <v>418</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
         <f t="shared" si="3"/>
         <v>4.6052631578947366E-2</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <f t="shared" si="1"/>
         <v>4.878048780487805E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <f t="shared" si="1"/>
         <v>3.9779005524861875E-2</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <f t="shared" si="1"/>
         <v>4.2648709315375982E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
         <v>67</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>72</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>47</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>60</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="7">
+      <c r="F15" s="3"/>
+      <c r="G15" s="5">
         <f t="shared" si="2"/>
         <v>804</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="5">
         <f t="shared" si="0"/>
         <v>864</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="5">
         <f t="shared" si="0"/>
         <v>564</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="5">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3">
         <f t="shared" si="3"/>
         <v>5.5098684210526314E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <f t="shared" si="1"/>
         <v>5.6648308418568057E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <f t="shared" si="1"/>
         <v>5.1933701657458566E-2</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <f t="shared" si="1"/>
         <v>6.7340067340067339E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>65</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>55</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>34</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>35</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="7">
+      <c r="F16" s="3"/>
+      <c r="G16" s="5">
         <f t="shared" si="2"/>
         <v>845</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <f t="shared" si="0"/>
         <v>715</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="5">
         <f t="shared" si="0"/>
         <v>442</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <f t="shared" si="0"/>
         <v>455</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
         <f t="shared" si="3"/>
         <v>5.3453947368421052E-2</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <f t="shared" si="1"/>
         <v>4.3273013375295044E-2</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <f t="shared" si="1"/>
         <v>3.7569060773480663E-2</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <f t="shared" si="1"/>
         <v>3.9281705948372617E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>33</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>40</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>29</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>25</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="7">
+      <c r="F17" s="3"/>
+      <c r="G17" s="5">
         <f t="shared" si="2"/>
         <v>462</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="5">
         <f t="shared" si="0"/>
         <v>406</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="5">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
         <f t="shared" si="3"/>
         <v>2.7138157894736843E-2</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <f t="shared" si="1"/>
         <v>3.1471282454760031E-2</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <f t="shared" si="1"/>
         <v>3.2044198895027624E-2</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <f t="shared" si="1"/>
         <v>2.8058361391694726E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>30</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>25</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>26</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>16</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="7">
+      <c r="F18" s="3"/>
+      <c r="G18" s="5">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="5">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="5">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="5">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3">
         <f t="shared" si="3"/>
         <v>2.4671052631578948E-2</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <f t="shared" si="1"/>
         <v>1.9669551534225019E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <f t="shared" si="1"/>
         <v>2.8729281767955802E-2</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <f t="shared" si="1"/>
         <v>1.7957351290684626E-2</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>11</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>23</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>16</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>14</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="7">
+      <c r="F19" s="3"/>
+      <c r="G19" s="5">
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="5">
         <f t="shared" ref="H19:H28" si="4">$A19*C19</f>
         <v>368</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="5">
         <f t="shared" ref="I19:I28" si="5">$A19*D19</f>
         <v>256</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="5">
         <f t="shared" ref="J19:J28" si="6">$A19*E19</f>
         <v>224</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4">
+      <c r="K19" s="3"/>
+      <c r="L19" s="3">
         <f t="shared" si="3"/>
         <v>9.0460526315789477E-3</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="3">
         <f t="shared" ref="M19:M28" si="7">C19/C$29</f>
         <v>1.8095987411487019E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <f t="shared" ref="N19:N28" si="8">D19/D$29</f>
         <v>1.7679558011049725E-2</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <f t="shared" ref="O19:O28" si="9">E19/E$29</f>
         <v>1.5712682379349047E-2</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="4">
-        <v>5</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="3">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
         <v>14</v>
       </c>
-      <c r="D20" s="4">
-        <v>6</v>
-      </c>
-      <c r="E20" s="4">
-        <v>7</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="7">
+      <c r="D20" s="3">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="5">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="5">
         <f t="shared" si="4"/>
         <v>238</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="5">
         <f t="shared" si="5"/>
         <v>102</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="5">
         <f t="shared" si="6"/>
         <v>119</v>
       </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3">
         <f t="shared" si="3"/>
         <v>4.1118421052631577E-3</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="3">
         <f t="shared" si="7"/>
         <v>1.1014948859166011E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <f t="shared" si="8"/>
         <v>6.6298342541436465E-3</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="3">
         <f t="shared" si="9"/>
         <v>7.8563411896745237E-3</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="4">
-        <v>7</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="3">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3">
         <v>11</v>
       </c>
-      <c r="D21" s="4">
-        <v>5</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D21" s="3">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
         <v>10</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="7">
+      <c r="F21" s="3"/>
+      <c r="G21" s="5">
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="5">
         <f t="shared" si="4"/>
         <v>198</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="5">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="5">
         <f t="shared" si="6"/>
         <v>180</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3">
         <f t="shared" si="3"/>
         <v>5.7565789473684207E-3</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <f t="shared" si="7"/>
         <v>8.6546026750590095E-3</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="3">
         <f t="shared" si="8"/>
         <v>5.5248618784530384E-3</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <f t="shared" si="9"/>
         <v>1.1223344556677889E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="4">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4">
-        <v>6</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="7">
+      <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="5">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="5">
         <f t="shared" si="4"/>
         <v>114</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="5">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="5">
         <f t="shared" si="6"/>
         <v>38</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4">
+      <c r="K22" s="3"/>
+      <c r="L22" s="3">
         <f t="shared" si="3"/>
         <v>4.1118421052631577E-3</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="3">
         <f t="shared" si="7"/>
         <v>4.7206923682140047E-3</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="3">
         <f t="shared" si="8"/>
         <v>1.1049723756906078E-3</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="3">
         <f t="shared" si="9"/>
         <v>2.2446689113355782E-3</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4">
-        <v>3</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="7">
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="5">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="5">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4">
+      <c r="K23" s="3"/>
+      <c r="L23" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="3">
         <f t="shared" si="7"/>
         <v>2.3603461841070024E-3</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="3">
         <f t="shared" si="8"/>
         <v>1.1049723756906078E-3</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="3">
         <f t="shared" si="9"/>
         <v>1.1223344556677891E-3</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="4">
-        <v>2</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="7">
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="5">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="5">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4">
+      <c r="K24" s="3"/>
+      <c r="L24" s="3">
         <f t="shared" si="3"/>
         <v>1.6447368421052631E-3</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="3">
         <f t="shared" si="7"/>
         <v>7.8678206136900079E-4</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="7">
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4">
+      <c r="K25" s="3"/>
+      <c r="L25" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="4">
-        <v>1</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4">
-        <v>2</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="7">
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="5">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="5">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4">
+      <c r="K26" s="3"/>
+      <c r="L26" s="3">
         <f t="shared" si="3"/>
         <v>8.2236842105263153E-4</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="3">
         <f t="shared" si="8"/>
         <v>2.2099447513812156E-3</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="7">
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="5">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4">
+      <c r="K27" s="3"/>
+      <c r="L27" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="3">
         <f t="shared" si="9"/>
         <v>1.1223344556677891E-3</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="4">
-        <v>1</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="7">
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="5">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4">
+      <c r="K28" s="3"/>
+      <c r="L28" s="3">
         <f t="shared" si="3"/>
         <v>8.2236842105263153E-4</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <f>SUM(B3:B28)</f>
         <v>1216</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <f t="shared" ref="C29:E29" si="10">SUM(C3:C28)</f>
         <v>1271</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <f t="shared" si="10"/>
         <v>905</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <f t="shared" si="10"/>
         <v>891</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="6">
         <f>SUM(G3:G28)</f>
         <v>7828</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="6">
         <f t="shared" ref="H29:J29" si="11">SUM(H3:H28)</f>
         <v>8577</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="6">
         <f t="shared" si="11"/>
         <v>5406</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="6">
         <f t="shared" si="11"/>
         <v>5499</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="7" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="5">
         <f>SUM(G3:H28)</f>
         <v>16405</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7">
+      <c r="I30" s="5"/>
+      <c r="J30" s="5">
         <f>SUM(I3:J28)</f>
         <v>10905</v>
       </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7" t="s">
+      <c r="I31" s="5"/>
+      <c r="J31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5086,1549 +5311,2175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1726602-561B-476E-BE1D-AF57C319E641}">
-  <dimension ref="A1:L45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0F636D-14D0-4EAD-8EA3-F4D623705DFC}">
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="G9" sqref="G9:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" style="9"/>
-    <col min="5" max="5" width="10.88671875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="9"/>
-    <col min="8" max="8" width="13.109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="9"/>
-    <col min="11" max="11" width="14.33203125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" style="9" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.77734375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="11"/>
+    <col min="7" max="7" width="13.77734375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="11" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="18">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0.14967105263157895</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0.11565696302124312</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0.20773480662983426</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.1638608305274972</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>6.9078947368421059E-2</v>
+      </c>
+      <c r="C3" s="12">
+        <v>7.1597167584579069E-2</v>
+      </c>
+      <c r="D3" s="12">
+        <v>4.9723756906077346E-2</v>
+      </c>
+      <c r="E3" s="12">
+        <v>7.2951739618406286E-2</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>6.1677631578947366E-2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>6.8450039339103069E-2</v>
+      </c>
+      <c r="D4" s="12">
+        <v>6.1878453038674036E-2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>6.8462401795735123E-2</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="21">
+        <v>7.3321000000000004E-16</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12">
+        <v>5.7565789473684209E-2</v>
+      </c>
+      <c r="C5" s="12">
+        <v>6.1369000786782063E-2</v>
+      </c>
+      <c r="D5" s="12">
+        <v>5.9668508287292817E-2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>5.9483726150392817E-2</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="19">
+        <v>6.9762E-9</v>
+      </c>
+      <c r="I5" s="19">
+        <v>7.2727000000000003E-9</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12">
+        <v>6.0855263157894739E-2</v>
+      </c>
+      <c r="C6" s="12">
+        <v>7.5531077891424075E-2</v>
+      </c>
+      <c r="D6" s="12">
+        <v>8.5082872928176789E-2</v>
+      </c>
+      <c r="E6" s="12">
+        <v>7.9685746352413017E-2</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="19">
+        <v>3.7473999999999997E-9</v>
+      </c>
+      <c r="I6" s="19">
+        <v>3.9331E-9</v>
+      </c>
+      <c r="J6" s="19">
+        <v>1.0213E-8</v>
+      </c>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12">
+        <v>6.4967105263157895E-2</v>
+      </c>
+      <c r="C7" s="12">
+        <v>4.3273013375295044E-2</v>
+      </c>
+      <c r="D7" s="12">
+        <v>6.0773480662983423E-2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>6.7340067340067339E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12">
+        <v>4.8519736842105261E-2</v>
+      </c>
+      <c r="C8" s="12">
+        <v>6.2155782848151063E-2</v>
+      </c>
+      <c r="D8" s="12">
+        <v>5.4143646408839778E-2</v>
+      </c>
+      <c r="E8" s="12">
+        <v>4.9382716049382713E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12">
+        <v>6.9078947368421059E-2</v>
+      </c>
+      <c r="C9" s="12">
+        <v>6.2942564909520063E-2</v>
+      </c>
+      <c r="D9" s="12">
+        <v>4.9723756906077346E-2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>4.8260381593714929E-2</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12">
+        <v>7.6480263157894732E-2</v>
+      </c>
+      <c r="C10" s="12">
+        <v>7.3957513768686076E-2</v>
+      </c>
+      <c r="D10" s="12">
+        <v>7.07182320441989E-2</v>
+      </c>
+      <c r="E10" s="12">
+        <v>7.8563411896745233E-2</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="21">
+        <v>7.3321000000000004E-16</v>
+      </c>
+      <c r="I10" s="20">
+        <v>2.0085999999999999</v>
+      </c>
+      <c r="J10" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12">
+        <v>5.921052631578947E-2</v>
+      </c>
+      <c r="C11" s="12">
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="D11" s="12">
+        <v>4.1988950276243095E-2</v>
+      </c>
+      <c r="E11" s="12">
+        <v>3.8159371492704826E-2</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="19">
+        <v>6.9762E-9</v>
+      </c>
+      <c r="I11" s="20">
+        <v>2.0085999999999999</v>
+      </c>
+      <c r="J11" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12">
+        <v>5.016447368421053E-2</v>
+      </c>
+      <c r="C12" s="12">
+        <v>5.5074744295830057E-2</v>
+      </c>
+      <c r="D12" s="12">
+        <v>3.4254143646408837E-2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>3.9281705948372617E-2</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="19">
+        <v>3.7473999999999997E-9</v>
+      </c>
+      <c r="I12" s="20">
+        <v>2.0085999999999999</v>
+      </c>
+      <c r="J12" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12">
+        <v>4.6052631578947366E-2</v>
+      </c>
+      <c r="C13" s="12">
+        <v>4.878048780487805E-2</v>
+      </c>
+      <c r="D13" s="12">
+        <v>3.9779005524861875E-2</v>
+      </c>
+      <c r="E13" s="12">
+        <v>4.2648709315375982E-2</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="19">
+        <v>7.2727000000000003E-9</v>
+      </c>
+      <c r="I13" s="20">
+        <v>2.0085999999999999</v>
+      </c>
+      <c r="J13" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12">
+        <v>5.5098684210526314E-2</v>
+      </c>
+      <c r="C14" s="12">
+        <v>5.6648308418568057E-2</v>
+      </c>
+      <c r="D14" s="12">
+        <v>5.1933701657458566E-2</v>
+      </c>
+      <c r="E14" s="12">
+        <v>6.7340067340067339E-2</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="19">
+        <v>3.9331E-9</v>
+      </c>
+      <c r="I14" s="20">
+        <v>2.0085999999999999</v>
+      </c>
+      <c r="J14" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12">
+        <v>5.3453947368421052E-2</v>
+      </c>
+      <c r="C15" s="12">
+        <v>4.3273013375295044E-2</v>
+      </c>
+      <c r="D15" s="12">
+        <v>3.7569060773480663E-2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>3.9281705948372617E-2</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="19">
+        <v>1.0213E-8</v>
+      </c>
+      <c r="I15" s="20">
+        <v>2.0085999999999999</v>
+      </c>
+      <c r="J15" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12">
+        <v>2.7138157894736843E-2</v>
+      </c>
+      <c r="C16" s="12">
+        <v>3.1471282454760031E-2</v>
+      </c>
+      <c r="D16" s="12">
+        <v>3.2044198895027624E-2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2.8058361391694726E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12">
+        <v>2.4671052631578948E-2</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1.9669551534225019E-2</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2.8729281767955802E-2</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1.7957351290684626E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12">
+        <v>9.0460526315789477E-3</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1.8095987411487019E-2</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1.7679558011049725E-2</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1.5712682379349047E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12">
+        <v>4.1118421052631577E-3</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1.1014948859166011E-2</v>
+      </c>
+      <c r="D19" s="12">
+        <v>6.6298342541436465E-3</v>
+      </c>
+      <c r="E19" s="12">
+        <v>7.8563411896745237E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12">
+        <v>5.7565789473684207E-3</v>
+      </c>
+      <c r="C20" s="12">
+        <v>8.6546026750590095E-3</v>
+      </c>
+      <c r="D20" s="12">
+        <v>5.5248618784530384E-3</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1.1223344556677889E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12">
+        <v>4.1118421052631577E-3</v>
+      </c>
+      <c r="C21" s="12">
+        <v>4.7206923682140047E-3</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1.1049723756906078E-3</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2.2446689113355782E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>2.3603461841070024E-3</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1.1049723756906078E-3</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1.1223344556677891E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12">
+        <v>1.6447368421052631E-3</v>
+      </c>
+      <c r="C23" s="12">
+        <v>7.8678206136900079E-4</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="18">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
+        <v>23</v>
+      </c>
+      <c r="B25" s="12">
+        <v>8.2236842105263153E-4</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12">
+        <v>2.2099447513812156E-3</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="18">
+        <v>24</v>
+      </c>
+      <c r="B26" s="12">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1.1223344556677891E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="18">
+        <v>25</v>
+      </c>
+      <c r="B27" s="12">
+        <v>8.2236842105263153E-4</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1726602-561B-476E-BE1D-AF57C319E641}">
+  <dimension ref="A1:L45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="8.88671875" style="7"/>
+    <col min="5" max="5" width="10.88671875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="7"/>
+    <col min="8" max="8" width="13.109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="7"/>
+    <col min="11" max="11" width="14.33203125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="E2" s="13" t="s">
+      <c r="C2" s="16"/>
+      <c r="E2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="K2" s="13" t="s">
+      <c r="I2" s="17"/>
+      <c r="K2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="A3" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
         <f>B3/B$44</f>
         <v>0</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <f>C3/C$44</f>
         <v>0</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <f>$A3*B3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <f>$A3*C3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="7">
         <f>_xlfn.POISSON.DIST($A3, H$45, FALSE)</f>
         <v>6.8787742762019358E-7</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="7">
         <f>_xlfn.POISSON.DIST($A3, I$45, FALSE)</f>
         <v>3.1000634368967879E-5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <v>3</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7">
         <f t="shared" ref="E4:F43" si="0">B4/B$44</f>
         <v>5.7471264367816091E-3</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <f t="shared" si="0"/>
         <v>1.7341040462427744E-2</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <f t="shared" ref="H4:I43" si="1">$A4*B4</f>
         <v>1</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <f t="shared" ref="K4:L43" si="2">_xlfn.POISSON.DIST($A4, H$45, FALSE)</f>
         <v>9.7607434988175761E-6</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="7">
         <f t="shared" si="2"/>
         <v>3.2183317529864923E-4</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9">
-        <v>3</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7">
         <f t="shared" si="0"/>
         <v>1.1494252873563218E-2</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <f t="shared" si="0"/>
         <v>1.7341040462427744E-2</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <f t="shared" si="2"/>
         <v>6.9250792237300613E-5</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="7">
         <f t="shared" si="2"/>
         <v>1.6705560197583073E-3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>6</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>3.4682080924855488E-2</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <f t="shared" si="2"/>
         <v>3.275482874212547E-4</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="7">
         <f t="shared" si="2"/>
         <v>5.7809607157724846E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="9">
-        <v>4</v>
-      </c>
-      <c r="C7" s="9">
-        <v>8</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>2.2988505747126436E-2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>4.6242774566473986E-2</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="7">
         <f t="shared" si="2"/>
         <v>1.1619493127055724E-3</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="7">
         <f t="shared" si="2"/>
         <v>1.500376509469274E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9">
-        <v>12</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7">
+        <v>12</v>
+      </c>
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>2.2988505747126436E-2</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>6.9364161849710976E-2</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <f t="shared" si="2"/>
         <v>3.2975320150230559E-3</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="7">
         <f t="shared" si="2"/>
         <v>3.115232613880712E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
         <v>10</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>5.7471264367816091E-2</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>8.6705202312138727E-2</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="7">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="7">
         <f t="shared" si="2"/>
         <v>7.7984737021953342E-3</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="7">
         <f t="shared" si="2"/>
         <v>5.3901327307608451E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
         <v>10</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>11</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>5.7471264367816091E-2</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="7">
         <f t="shared" si="0"/>
         <v>6.358381502890173E-2</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="7">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="7">
         <f t="shared" si="2"/>
         <v>1.5808236100755567E-2</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="7">
         <f t="shared" si="2"/>
         <v>7.993954074687433E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>8</v>
-      </c>
-      <c r="B11" s="9">
-        <v>8</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7">
         <v>15</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>4.5977011494252873E-2</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="7">
         <f t="shared" si="0"/>
         <v>8.6705202312138727E-2</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="7">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="7">
         <f t="shared" si="2"/>
         <v>2.8039177394228051E-2</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="7">
         <f t="shared" si="2"/>
         <v>0.10373657166285132</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>9</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7">
         <v>10</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>14</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>5.7471264367816091E-2</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="7">
         <f t="shared" si="0"/>
         <v>8.0924855491329481E-2</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="7">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="7">
         <f t="shared" si="2"/>
         <v>4.4207362060248494E-2</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="7">
         <f t="shared" si="2"/>
         <v>0.11966016872606358</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="9">
-        <v>8</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="7">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7">
         <v>10</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>4.5977011494252873E-2</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>5.7803468208092484E-2</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="7">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="7">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="7">
         <f t="shared" si="2"/>
         <v>6.2728722371697423E-2</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="7">
         <f t="shared" si="2"/>
         <v>0.12422523874682669</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <v>15</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <v>13</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>8.6206896551724144E-2</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="7">
         <f t="shared" si="0"/>
         <v>7.5144508670520235E-2</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="7">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="7">
         <f t="shared" si="2"/>
         <v>8.0918085441860479E-2</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="7">
         <f t="shared" si="2"/>
         <v>0.11724042500751483</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>12</v>
-      </c>
-      <c r="B15" s="9">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7">
         <v>11</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>10</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="7">
         <f t="shared" si="0"/>
         <v>6.3218390804597707E-2</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="7">
         <f t="shared" si="0"/>
         <v>5.7803468208092484E-2</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="7">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="7">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="7">
         <f t="shared" si="2"/>
         <v>9.568331080265971E-2</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="7">
         <f t="shared" si="2"/>
         <v>0.10142765092172285</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+      <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="9">
-        <v>12</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="B16" s="7">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7">
         <v>11</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <f t="shared" si="0"/>
         <v>6.8965517241379309E-2</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="7">
         <f t="shared" si="0"/>
         <v>6.358381502890173E-2</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="7">
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="7">
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="7">
         <f t="shared" si="2"/>
         <v>0.10443947584958745</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="7">
         <f t="shared" si="2"/>
         <v>8.0997803937489649E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="7">
         <v>10</v>
       </c>
-      <c r="C17" s="9">
-        <v>5</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="E17" s="7">
         <f t="shared" si="0"/>
         <v>5.7471264367816091E-2</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="7">
         <f t="shared" si="0"/>
         <v>2.8901734104046242E-2</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="7">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="7">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="7">
         <f t="shared" si="2"/>
         <v>0.10585429633523458</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="7">
         <f t="shared" si="2"/>
         <v>6.0062781119624875E-2</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="9">
-        <v>3</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="B18" s="7">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>13</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="7">
         <f t="shared" si="0"/>
         <v>1.7241379310344827E-2</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="7">
         <f t="shared" si="0"/>
         <v>7.5144508670520235E-2</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="7">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="7">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="7">
         <f t="shared" si="2"/>
         <v>0.10013573090103227</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="7">
         <f t="shared" si="2"/>
         <v>4.1569462385682564E-2</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="9">
-        <v>12</v>
-      </c>
-      <c r="C19" s="9">
-        <v>3</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="B19" s="7">
+        <v>12</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7">
         <f t="shared" si="0"/>
         <v>6.8965517241379309E-2</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="7">
         <f t="shared" si="0"/>
         <v>1.7341040462427744E-2</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="7">
         <f t="shared" si="1"/>
         <v>192</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="7">
         <f t="shared" si="2"/>
         <v>8.8805718245204279E-2</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="7">
         <f t="shared" si="2"/>
         <v>2.6972093368744874E-2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="9">
-        <v>7</v>
-      </c>
-      <c r="C20" s="9">
-        <v>4</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="B20" s="7">
+        <v>7</v>
+      </c>
+      <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="E20" s="7">
         <f t="shared" si="0"/>
         <v>4.0229885057471264E-2</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="7">
         <f t="shared" si="0"/>
         <v>2.3121387283236993E-2</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="7">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="7">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="7">
         <f t="shared" si="2"/>
         <v>7.4124854072822613E-2</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="7">
         <f t="shared" si="2"/>
         <v>1.6471227368332481E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="9">
-        <v>8</v>
-      </c>
-      <c r="C21" s="9">
-        <v>3</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="B21" s="7">
+        <v>8</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7">
         <f t="shared" si="0"/>
         <v>4.5977011494252873E-2</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="7">
         <f t="shared" si="0"/>
         <v>1.7341040462427744E-2</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="7">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="7">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="7">
         <f t="shared" si="2"/>
         <v>5.8433673277713635E-2</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="7">
         <f t="shared" si="2"/>
         <v>9.4997830293915026E-3</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="9">
-        <v>4</v>
-      </c>
-      <c r="C22" s="9">
-        <v>2</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="B22" s="7">
+        <v>4</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7">
         <f t="shared" si="0"/>
         <v>2.2988505747126436E-2</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="7">
         <f t="shared" si="0"/>
         <v>1.1560693641618497E-2</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="7">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="7">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="7">
         <f t="shared" si="2"/>
         <v>4.3639667066749842E-2</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="7">
         <f t="shared" si="2"/>
         <v>5.1906328934551629E-3</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="9">
-        <v>3</v>
-      </c>
-      <c r="C23" s="9">
-        <v>3</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="B23" s="7">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>3</v>
+      </c>
+      <c r="E23" s="7">
         <f t="shared" si="0"/>
         <v>1.7241379310344827E-2</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="7">
         <f t="shared" si="0"/>
         <v>1.7341040462427744E-2</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="7">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="7">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="7">
         <f t="shared" si="2"/>
         <v>3.0961591375806112E-2</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="7">
         <f t="shared" si="2"/>
         <v>2.6943285192616946E-3</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+      <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="9">
-        <v>5</v>
-      </c>
-      <c r="C24" s="9">
-        <v>2</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="B24" s="7">
+        <v>5</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7">
         <f t="shared" si="0"/>
         <v>2.8735632183908046E-2</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="7">
         <f t="shared" si="0"/>
         <v>1.1560693641618497E-2</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="7">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="7">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="7">
         <f t="shared" si="2"/>
         <v>2.0920681200565196E-2</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="7">
         <f t="shared" si="2"/>
         <v>1.3319609195139022E-3</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+      <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="9">
-        <v>3</v>
-      </c>
-      <c r="C25" s="9">
-        <v>0</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="B25" s="7">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
         <f t="shared" si="0"/>
         <v>1.7241379310344827E-2</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="7">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="7">
         <f t="shared" si="2"/>
         <v>1.3493511464000938E-2</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="7">
         <f t="shared" si="2"/>
         <v>6.2853436979689323E-4</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+      <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="9">
-        <v>5</v>
-      </c>
-      <c r="C26" s="9">
-        <v>3</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="B26" s="7">
+        <v>5</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7">
         <f t="shared" si="0"/>
         <v>2.8735632183908046E-2</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="7">
         <f t="shared" si="0"/>
         <v>1.7341040462427744E-2</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="7">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="7">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="7">
         <f t="shared" si="2"/>
         <v>8.3247075973558946E-3</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="7">
         <f t="shared" si="2"/>
         <v>2.8370136420085852E-4</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+      <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="9">
-        <v>4</v>
-      </c>
-      <c r="C27" s="9">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="B27" s="7">
+        <v>4</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
         <f t="shared" si="0"/>
         <v>2.2988505747126436E-2</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="7">
         <f t="shared" si="0"/>
         <v>5.7803468208092483E-3</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="7">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="7">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="7">
         <f t="shared" si="2"/>
         <v>4.9218637590688809E-3</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="7">
         <f t="shared" si="2"/>
         <v>1.2271860551655659E-4</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+      <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="9">
-        <v>2</v>
-      </c>
-      <c r="C28" s="9">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9">
+      <c r="B28" s="7">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
         <f t="shared" si="0"/>
         <v>1.1494252873563218E-2</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="7">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="7">
         <f t="shared" si="2"/>
         <v>2.7935819818715193E-3</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="7">
         <f t="shared" si="2"/>
         <v>5.0960142313927136E-5</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+      <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="9">
-        <v>3</v>
-      </c>
-      <c r="C29" s="9">
-        <v>0</v>
-      </c>
-      <c r="E29" s="9">
+      <c r="B29" s="7">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
         <f t="shared" si="0"/>
         <v>1.7241379310344827E-2</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="7">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="7">
         <f t="shared" si="2"/>
         <v>1.5246140391778895E-3</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="7">
         <f t="shared" si="2"/>
         <v>2.0347802489064834E-5</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+      <c r="A30" s="7">
         <v>27</v>
       </c>
-      <c r="B30" s="9">
-        <v>0</v>
-      </c>
-      <c r="C30" s="9">
-        <v>1</v>
-      </c>
-      <c r="E30" s="9">
+      <c r="B30" s="7">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="7">
         <f t="shared" si="0"/>
         <v>5.7803468208092483E-3</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="7">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="7">
         <f t="shared" si="2"/>
         <v>8.0124990692426689E-4</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="7">
         <f t="shared" si="2"/>
         <v>7.8237322351445998E-6</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+      <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="B31" s="9">
-        <v>3</v>
-      </c>
-      <c r="C31" s="9">
-        <v>0</v>
-      </c>
-      <c r="E31" s="9">
+      <c r="B31" s="7">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
         <f t="shared" si="0"/>
         <v>1.7241379310344827E-2</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="7">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="7">
         <f t="shared" si="2"/>
         <v>4.0605213879228589E-4</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="7">
         <f t="shared" si="2"/>
         <v>2.9007892432534499E-6</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+      <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="B32" s="9">
-        <v>0</v>
-      </c>
-      <c r="C32" s="9">
-        <v>0</v>
-      </c>
-      <c r="E32" s="9">
+      <c r="B32" s="7">
+        <v>0</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="7">
         <f t="shared" si="2"/>
         <v>1.9868068384426367E-4</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="7">
         <f t="shared" si="2"/>
         <v>1.0384328245730893E-6</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+      <c r="A33" s="7">
         <v>30</v>
       </c>
-      <c r="B33" s="9">
-        <v>1</v>
-      </c>
-      <c r="C33" s="9">
-        <v>1</v>
-      </c>
-      <c r="E33" s="9">
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
         <f t="shared" si="0"/>
         <v>5.7471264367816091E-3</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="7">
         <f t="shared" si="0"/>
         <v>5.7803468208092483E-3</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="7">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="7">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="7">
         <f t="shared" si="2"/>
         <v>9.3973679772315318E-5</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="7">
         <f t="shared" si="2"/>
         <v>3.5934977898521635E-7</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
+      <c r="A34" s="7">
         <v>31</v>
       </c>
-      <c r="B34" s="9">
-        <v>0</v>
-      </c>
-      <c r="C34" s="9">
-        <v>0</v>
-      </c>
-      <c r="E34" s="9">
+      <c r="B34" s="7">
+        <v>0</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="7">
         <f t="shared" si="2"/>
         <v>4.3014648750064301E-5</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="7">
         <f t="shared" si="2"/>
         <v>1.203416377134898E-7</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+      <c r="A35" s="7">
         <v>32</v>
       </c>
-      <c r="B35" s="9">
-        <v>2</v>
-      </c>
-      <c r="C35" s="9">
-        <v>0</v>
-      </c>
-      <c r="E35" s="9">
+      <c r="B35" s="7">
+        <v>2</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
         <f t="shared" si="0"/>
         <v>1.1494252873563218E-2</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="7">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="7">
         <f t="shared" si="2"/>
         <v>1.9073844785184754E-5</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="7">
         <f t="shared" si="2"/>
         <v>3.9041470616587353E-8</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
+      <c r="A36" s="7">
         <v>33</v>
       </c>
-      <c r="B36" s="9">
-        <v>1</v>
-      </c>
-      <c r="C36" s="9">
-        <v>1</v>
-      </c>
-      <c r="E36" s="9">
+      <c r="B36" s="7">
+        <v>1</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7">
         <f t="shared" si="0"/>
         <v>5.7471264367816091E-3</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="7">
         <f t="shared" si="0"/>
         <v>5.7803468208092483E-3</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="7">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="7">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="7">
         <f t="shared" si="2"/>
         <v>8.2015539489065495E-6</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="7">
         <f t="shared" si="2"/>
         <v>1.2282095152809785E-8</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
+      <c r="A37" s="7">
         <v>34</v>
       </c>
-      <c r="B37" s="9">
-        <v>0</v>
-      </c>
-      <c r="C37" s="9">
-        <v>0</v>
-      </c>
-      <c r="E37" s="9">
+      <c r="B37" s="7">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0</v>
+      </c>
+      <c r="E37" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37" s="7">
         <f t="shared" si="2"/>
         <v>3.4228594827333083E-6</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="7">
         <f t="shared" si="2"/>
         <v>3.7501943037141125E-9</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
+      <c r="A38" s="7">
         <v>35</v>
       </c>
-      <c r="B38" s="9">
-        <v>0</v>
-      </c>
-      <c r="C38" s="9">
-        <v>0</v>
-      </c>
-      <c r="E38" s="9">
+      <c r="B38" s="7">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K38" s="7">
         <f t="shared" si="2"/>
         <v>1.3876913075317747E-6</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="7">
         <f t="shared" si="2"/>
         <v>1.1123615143634271E-9</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
+      <c r="A39" s="7">
         <v>36</v>
       </c>
-      <c r="B39" s="9">
-        <v>1</v>
-      </c>
-      <c r="C39" s="9">
-        <v>0</v>
-      </c>
-      <c r="E39" s="9">
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7">
         <f t="shared" si="0"/>
         <v>5.7471264367816091E-3</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="7">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K39" s="7">
         <f t="shared" si="2"/>
         <v>5.4696836498977666E-7</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="7">
         <f t="shared" si="2"/>
         <v>3.2077734100782082E-10</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
+      <c r="A40" s="7">
         <v>37</v>
       </c>
-      <c r="B40" s="9">
-        <v>0</v>
-      </c>
-      <c r="C40" s="9">
-        <v>0</v>
-      </c>
-      <c r="E40" s="9">
+      <c r="B40" s="7">
+        <v>0</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40" s="7">
         <f t="shared" si="2"/>
         <v>2.0976466187632074E-7</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="7">
         <f t="shared" si="2"/>
         <v>9.0004078183104081E-11</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
+      <c r="A41" s="7">
         <v>38</v>
       </c>
-      <c r="B41" s="9">
-        <v>1</v>
-      </c>
-      <c r="C41" s="9">
-        <v>0</v>
-      </c>
-      <c r="E41" s="9">
+      <c r="B41" s="7">
+        <v>1</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7">
         <f t="shared" si="0"/>
         <v>5.7471264367816091E-3</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="7">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K41" s="7">
         <f t="shared" si="2"/>
         <v>7.8328637352183613E-8</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="7">
         <f t="shared" si="2"/>
         <v>2.4588884152244341E-11</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="9">
+      <c r="A42" s="7">
         <v>39</v>
       </c>
-      <c r="B42" s="9">
-        <v>0</v>
-      </c>
-      <c r="C42" s="9">
-        <v>0</v>
-      </c>
-      <c r="E42" s="9">
+      <c r="B42" s="7">
+        <v>0</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K42" s="7">
         <f t="shared" si="2"/>
         <v>2.8498880875706132E-8</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="7">
         <f t="shared" si="2"/>
         <v>6.5453736382734168E-12</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="9">
+      <c r="A43" s="7">
         <v>40</v>
       </c>
-      <c r="B43" s="9">
-        <v>1</v>
-      </c>
-      <c r="C43" s="9">
-        <v>0</v>
-      </c>
-      <c r="E43" s="9">
+      <c r="B43" s="7">
+        <v>1</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7">
         <f t="shared" si="0"/>
         <v>5.7471264367816091E-3</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="7">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K43" s="7">
         <f t="shared" si="2"/>
         <v>1.0109732310649146E-8</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L43" s="7">
         <f t="shared" si="2"/>
         <v>1.6987703835750064E-12</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="8">
         <f>SUM(B3:B43)</f>
         <v>174</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="8">
         <f>SUM(C3:C43)</f>
         <v>173</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="7">
         <f>SUM(H3:H43)</f>
         <v>2469</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="7">
         <f>SUM(I3:I43)</f>
         <v>1796</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="7">
         <f>H44/B44</f>
         <v>14.189655172413794</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="7">
         <f>I44/C44</f>
         <v>10.38150289017341</v>
       </c>
@@ -6643,7 +7494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ACBA4C-0B7C-4EA2-9B8C-08892CF63EFC}">
   <dimension ref="A1:D1272"/>
   <sheetViews>
@@ -22063,7 +22914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17A5FDD-EF07-4EFE-BCB6-CC5010C818AE}">
   <dimension ref="A1:B175"/>
   <sheetViews>
